--- a/DLS_Plots/20231204_DLS_DIP_Serum10_CorrectSeqAddition_AW.xlsx
+++ b/DLS_Plots/20231204_DLS_DIP_Serum10_CorrectSeqAddition_AW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/DLS_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6808C9-E6AB-A34C-98CC-D168A10E0BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE543A0-58FC-4941-8C53-DA8EB359D912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="1160" windowWidth="25040" windowHeight="14820" xr2:uid="{9F1A5845-15A8-9C4D-AE0A-C0908DEDAA7F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Polymer</t>
   </si>
@@ -46,21 +46,6 @@
   </si>
   <si>
     <t>Stddev</t>
-  </si>
-  <si>
-    <t>DIP S1</t>
-  </si>
-  <si>
-    <t>DIP B1</t>
-  </si>
-  <si>
-    <t>DIP G1</t>
-  </si>
-  <si>
-    <t>DIP G2</t>
-  </si>
-  <si>
-    <t>DIP G3</t>
   </si>
   <si>
     <t>S1</t>
@@ -436,7 +421,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -527,15 +512,15 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>3721.53</v>
@@ -557,7 +542,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>825.24</v>
@@ -579,7 +564,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3923.94</v>
@@ -601,7 +586,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>2296.3200000000002</v>
@@ -623,7 +608,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>1415.17</v>
